--- a/data_excel/718.xlsx
+++ b/data_excel/718.xlsx
@@ -123,13 +123,14 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +504,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -703,16 +704,16 @@
       <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
-        <v>34</v>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>

--- a/data_excel/718.xlsx
+++ b/data_excel/718.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>園遊會</t>
   </si>
@@ -131,6 +131,10 @@
   </si>
   <si>
     <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,12 +508,12 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,12 +533,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
